--- a/2019/2019OnePage.xlsx
+++ b/2019/2019OnePage.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>星期天</t>
   </si>
@@ -55,6 +55,16 @@
   <si>
     <t>一月</t>
   </si>
+  <si>
+    <t>重点是复习iOS技术
+找到一个好的工作</t>
+  </si>
+  <si>
+    <t>联系猎头</t>
+  </si>
+  <si>
+    <t>复习知识</t>
+  </si>
 </sst>
 </file>
 
@@ -69,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +98,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -101,16 +117,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,12 +417,12 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
@@ -407,26 +432,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -474,10 +499,18 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -503,8 +536,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -566,13 +603,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
